--- a/predictions/quantum_predictions.xlsx
+++ b/predictions/quantum_predictions.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5188330834962873</v>
+        <v>0.4471118299071225</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4805340037300575</v>
+        <v>0.5128108231650346</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4630743542622486</v>
+        <v>0.5142868200499384</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5010595507227067</v>
+        <v>0.3515300111981882</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3705748240048243</v>
+        <v>0.6667864272184959</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.548226233716163</v>
+        <v>0.5086072680161079</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5648824428567678</v>
+        <v>0.5248751753221683</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5924280622406588</v>
+        <v>0.5444834636029661</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5006039877784987</v>
+        <v>0.4923343050435468</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3807937390485691</v>
+        <v>0.4537622034155825</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5164503831587869</v>
+        <v>0.5045749746481826</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5823980221154872</v>
+        <v>0.4652021096909096</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3907675709110858</v>
+        <v>0.5410010079298252</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5350986516699596</v>
+        <v>0.3555360560952532</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5006563588685433</v>
+        <v>0.5071481808419751</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5022690846767207</v>
+        <v>0.5122179597512977</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4131794690214964</v>
+        <v>0.4580393340350952</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4786696528595976</v>
+        <v>0.4650436118196076</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5238678360460169</v>
+        <v>0.3366350046586943</v>
       </c>
     </row>
     <row r="21">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5405598732632979</v>
+        <v>0.4902810119079558</v>
       </c>
     </row>
     <row r="22">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3903133712879917</v>
+        <v>0.6086035789939667</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4096249932691555</v>
+        <v>0.7161874614834476</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4747773904113137</v>
+        <v>0.511246202900055</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6133594003611016</v>
+        <v>0.3692236982531322</v>
       </c>
     </row>
     <row r="26">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5498343021222001</v>
+        <v>0.4877370591280287</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4495578151701762</v>
+        <v>0.4970606232485276</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5028621777368713</v>
+        <v>0.3912964603780546</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4977332369759588</v>
+        <v>0.5096097894449901</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5159998205360471</v>
+        <v>0.5758828619899141</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4496422295030956</v>
+        <v>0.526239801506054</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5104438223005863</v>
+        <v>0.8293458909726055</v>
       </c>
     </row>
     <row r="33">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5044887273559324</v>
+        <v>0.4630516867642296</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4829398623176472</v>
+        <v>0.4703648402918553</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5048142900878737</v>
+        <v>0.517538917014704</v>
       </c>
     </row>
     <row r="36">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4640491018788121</v>
+        <v>0.5383897165248632</v>
       </c>
     </row>
     <row r="37">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5039877810720923</v>
+        <v>0.4984627778484001</v>
       </c>
     </row>
     <row r="38">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5395448400146938</v>
+        <v>0.4572142749627597</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4792201117845094</v>
+        <v>0.4428643489351282</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4605095815982816</v>
+        <v>0.4760624041373397</v>
       </c>
     </row>
     <row r="41">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4351422311348083</v>
+        <v>0.5023452308338077</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5489405751045356</v>
+        <v>0.5092943616825444</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5131249703196652</v>
+        <v>0.5234000653433046</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5047112608589699</v>
+        <v>0.5075424536570992</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5986132136128252</v>
+        <v>0.5075089696045735</v>
       </c>
     </row>
     <row r="46">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5325053372347698</v>
+        <v>0.435398248250259</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5159014384602115</v>
+        <v>0.5012338855090729</v>
       </c>
     </row>
     <row r="48">
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3708071188953527</v>
+        <v>0.6103260771724672</v>
       </c>
     </row>
     <row r="49">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5526604008423116</v>
+        <v>0.4471817559693818</v>
       </c>
     </row>
     <row r="50">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5185352936398815</v>
+        <v>0.4489785187772473</v>
       </c>
     </row>
     <row r="51">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4998670355278733</v>
+        <v>0.5094724402526877</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4034124832175348</v>
+        <v>0.28378730957202</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5426329017976381</v>
+        <v>0.5000821257894242</v>
       </c>
     </row>
     <row r="54">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5205775704720454</v>
+        <v>0.497518593356151</v>
       </c>
     </row>
     <row r="55">
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4327227982277135</v>
+        <v>0.5374257846788126</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3482256222721603</v>
+        <v>0.4996938952755273</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4674723848064748</v>
+        <v>0.4500169551299417</v>
       </c>
     </row>
     <row r="58">
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5149501730692393</v>
+        <v>0.4920383581699381</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5313407717364811</v>
+        <v>0.5091866002208123</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4900178216762069</v>
+        <v>0.4943503796385175</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5215093658633785</v>
+        <v>0.52190942274153</v>
       </c>
     </row>
     <row r="62">
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4733035252591893</v>
+        <v>0.5227540861106106</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4787899716662422</v>
+        <v>0.4729942202324009</v>
       </c>
     </row>
     <row r="64">
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2923470812003376</v>
+        <v>0.5271650490963673</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4567312531242497</v>
+        <v>0.4958423544867442</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5460391693553162</v>
+        <v>0.512144208391502</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4271332748159777</v>
+        <v>0.3889865748370847</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4787699495724121</v>
+        <v>0.4973815685686857</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5122647677461679</v>
+        <v>0.5205294481876545</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5929843257294171</v>
+        <v>0.5442024818414894</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4581485481376826</v>
+        <v>0.4361085757248254</v>
       </c>
     </row>
     <row r="72">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4889990613854642</v>
+        <v>0.5106021877771861</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4664677266418261</v>
+        <v>0.498210102699182</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4514106462361991</v>
+        <v>0.4836213295320703</v>
       </c>
     </row>
     <row r="75">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4603534786002288</v>
+        <v>0.5141895309331896</v>
       </c>
     </row>
     <row r="76">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.492603232855473</v>
+        <v>0.5239902968770835</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4796478234337286</v>
+        <v>0.4954826510045377</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5118298145881264</v>
+        <v>0.5076496448636435</v>
       </c>
     </row>
     <row r="79">
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4801282308185409</v>
+        <v>0.5097464919733984</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/quantum_predictions.xlsx
+++ b/predictions/quantum_predictions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,392 +463,392 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4471118299071225</v>
+        <v>0.4882273688379957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5128108231650346</v>
+        <v>0.5098939526082396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5142868200499384</v>
+        <v>0.5517589363143967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3515300111981882</v>
+        <v>0.5036084886920478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6667864272184959</v>
+        <v>0.4752685167980447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5086072680161079</v>
+        <v>0.5073348666347747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5248751753221683</v>
+        <v>0.5009681008368676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5444834636029661</v>
+        <v>0.5141866981980645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4923343050435468</v>
+        <v>0.491809318069083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4537622034155825</v>
+        <v>0.4917372920181473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5045749746481826</v>
+        <v>0.3575034049552365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4652021096909096</v>
+        <v>0.497143570240814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5410010079298252</v>
+        <v>0.4943013268692195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3555360560952532</v>
+        <v>0.5061437293653175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5071481808419751</v>
+        <v>0.502319683701223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5122179597512977</v>
+        <v>0.5185231589612215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4580393340350952</v>
+        <v>0.4921067688974643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4650436118196076</v>
+        <v>0.4978076384539508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3366350046586943</v>
+        <v>0.5048702012482383</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4902810119079558</v>
+        <v>0.4708204715568689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6086035789939667</v>
+        <v>0.5031163566173029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7161874614834476</v>
+        <v>0.5266714480446339</v>
       </c>
     </row>
     <row r="24">
@@ -859,20 +859,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.511246202900055</v>
+        <v>0.4899200698901431</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -884,175 +884,175 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3692236982531322</v>
+        <v>0.4891100985339351</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4877370591280287</v>
+        <v>0.4994250306159679</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4970606232485276</v>
+        <v>0.5062411191467308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Denver Broncos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Green Bay Packers</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3912964603780546</v>
+        <v>0.4975294819813403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5096097894449901</v>
+        <v>0.5017912505876414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5758828619899141</v>
+        <v>0.52389825104459</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.526239801506054</v>
+        <v>0.4824519533673957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8293458909726055</v>
+        <v>0.4777513392267295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4630516867642296</v>
+        <v>0.3489387925908084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4703648402918553</v>
+        <v>0.5036124231881933</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1061,46 +1061,46 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.517538917014704</v>
+        <v>0.4679901958736529</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5383897165248632</v>
+        <v>0.5003350300772968</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4984627778484001</v>
+        <v>0.4808191984317435</v>
       </c>
     </row>
     <row r="38">
@@ -1111,590 +1111,590 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4572142749627597</v>
+        <v>0.5013703991457727</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4428643489351282</v>
+        <v>0.4845307227342067</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4760624041373397</v>
+        <v>0.542341189151788</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5023452308338077</v>
+        <v>0.4375906395325604</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5092943616825444</v>
+        <v>0.4786257918673127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5234000653433046</v>
+        <v>0.4843170018406483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5075424536570992</v>
+        <v>0.5299695401735223</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5075089696045735</v>
+        <v>0.4979487172860277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.435398248250259</v>
+        <v>0.5291858532962439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5012338855090729</v>
+        <v>0.4910556567044372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6103260771724672</v>
+        <v>0.6336518777449907</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4471817559693818</v>
+        <v>0.4978187453308479</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4489785187772473</v>
+        <v>0.5354088077033443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5094724402526877</v>
+        <v>0.5002128739490984</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28378730957202</v>
+        <v>0.5025544766266097</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5000821257894242</v>
+        <v>0.4930792900636485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.497518593356151</v>
+        <v>0.4530855541097635</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5374257846788126</v>
+        <v>0.4991427529844091</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4996938952755273</v>
+        <v>0.478246543313336</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4500169551299417</v>
+        <v>0.4720243395270419</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4920383581699381</v>
+        <v>0.4919540998588353</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5091866002208123</v>
+        <v>0.4948781980740971</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4943503796385175</v>
+        <v>0.4835580137747758</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.52190942274153</v>
+        <v>0.4976230515189082</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5227540861106106</v>
+        <v>0.421473294052432</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4729942202324009</v>
+        <v>0.5010391139323244</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5271650490963673</v>
+        <v>0.442392459617335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4958423544867442</v>
+        <v>0.5005317994557785</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.512144208391502</v>
+        <v>0.5821208322261626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3889865748370847</v>
+        <v>0.5397094121929661</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4973815685686857</v>
+        <v>0.4877150017342683</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Green Bay Packers</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5205294481876545</v>
+        <v>0.5081234405618628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5442024818414894</v>
+        <v>0.4836348305619739</v>
       </c>
     </row>
     <row r="71">
@@ -1705,20 +1705,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4361085757248254</v>
+        <v>0.4790855987590027</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1727,136 +1727,136 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5106021877771861</v>
+        <v>0.4963341413159947</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.498210102699182</v>
+        <v>0.5257583491931292</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Miami Dolphins</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4836213295320703</v>
+        <v>0.4957257256738834</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5141895309331896</v>
+        <v>0.5003405200885319</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5239902968770835</v>
+        <v>0.4967174532793243</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4954826510045377</v>
+        <v>0.496876219974453</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5076496448636435</v>
+        <v>0.4915911096773722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5097464919733984</v>
+        <v>0.4998121592835175</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/quantum_predictions.xlsx
+++ b/predictions/quantum_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,199 +458,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4882273688379957</v>
+        <v>0.4996787309646606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5098939526082396</v>
+        <v>0.4869099855422974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5517589363143967</v>
+        <v>0.499186784029007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5036084886920478</v>
+        <v>0.5252734422683716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4752685167980447</v>
+        <v>0.5433865785598755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5073348666347747</v>
+        <v>0.5175601840019226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5009681008368676</v>
+        <v>0.4912781119346619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5141866981980645</v>
+        <v>0.4956826567649841</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Buffalo Bills</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.491809318069083</v>
+        <v>0.4935786724090576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4917372920181473</v>
+        <v>0.5252776145935059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3575034049552365</v>
+        <v>0.5008692145347595</v>
       </c>
     </row>
     <row r="13">
@@ -661,1202 +661,662 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.497143570240814</v>
+        <v>0.4973102509975433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4943013268692195</v>
+        <v>0.5020279288291931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5061437293653175</v>
+        <v>0.489855170249939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.502319683701223</v>
+        <v>0.4945167303085327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5185231589612215</v>
+        <v>0.49144047498703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4921067688974643</v>
+        <v>0.5093929171562195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4978076384539508</v>
+        <v>0.4992230534553528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5048702012482383</v>
+        <v>0.5011369585990906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4708204715568689</v>
+        <v>0.5027030110359192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5031163566173029</v>
+        <v>0.4939492344856262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5266714480446339</v>
+        <v>0.4929150938987732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4899200698901431</v>
+        <v>0.5099077224731445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4891100985339351</v>
+        <v>0.5260111093521118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4994250306159679</v>
+        <v>0.5896560549736023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5062411191467308</v>
+        <v>0.494935154914856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4975294819813403</v>
+        <v>0.5059139728546143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5017912505876414</v>
+        <v>0.4960944652557373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.52389825104459</v>
+        <v>0.4819349944591522</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4824519533673957</v>
+        <v>0.4992329776287079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4777513392267295</v>
+        <v>0.4792150557041168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3489387925908084</v>
+        <v>0.4489166140556335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5036124231881933</v>
+        <v>0.488673061132431</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4679901958736529</v>
+        <v>0.50529545545578</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5003350300772968</v>
+        <v>0.4758220613002777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4808191984317435</v>
+        <v>0.5319632291793823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5013703991457727</v>
+        <v>0.5059967637062073</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4845307227342067</v>
+        <v>0.5240451097488403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.542341189151788</v>
+        <v>0.5012663602828979</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4375906395325604</v>
+        <v>0.4743223190307617</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4786257918673127</v>
+        <v>0.5099294185638428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4843170018406483</v>
+        <v>0.4498136341571808</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5299695401735223</v>
+        <v>0.5591900944709778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4979487172860277</v>
+        <v>0.4973501265048981</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5291858532962439</v>
+        <v>0.4953099191188812</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4910556567044372</v>
+        <v>0.4614345133304596</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6336518777449907</v>
+        <v>0.5219454765319824</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4978187453308479</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5354088077033443</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5002128739490984</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5025544766266097</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4930792900636485</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4530855541097635</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4991427529844091</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.478246543313336</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4720243395270419</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4919540998588353</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4948781980740971</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.4835580137747758</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.4976230515189082</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.421473294052432</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5010391139323244</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.442392459617335</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5005317994557785</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5821208322261626</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5397094121929661</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4877150017342683</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.5081234405618628</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.4836348305619739</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4790855987590027</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.4963341413159947</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.5257583491931292</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.4957257256738834</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.5003405200885319</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.4967174532793243</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.496876219974453</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.4915911096773722</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4998121592835175</v>
+        <v>0.5441341400146484</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/quantum_predictions.xlsx
+++ b/predictions/quantum_predictions.xlsx
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4996787309646606</v>
+        <v>0.4918893277645111</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4869099855422974</v>
+        <v>0.6692629456520081</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.499186784029007</v>
+        <v>0.4968279898166656</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5252734422683716</v>
+        <v>0.3787283301353455</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5433865785598755</v>
+        <v>0.5030312538146973</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5175601840019226</v>
+        <v>0.5558325052261353</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4912781119346619</v>
+        <v>0.4457062184810638</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4956826567649841</v>
+        <v>0.5066936612129211</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4935786724090576</v>
+        <v>0.3962562084197998</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5252776145935059</v>
+        <v>0.5024792551994324</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5008692145347595</v>
+        <v>0.5051472783088684</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4973102509975433</v>
+        <v>0.5567144155502319</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5020279288291931</v>
+        <v>0.5188864469528198</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.489855170249939</v>
+        <v>0.9265148639678955</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4945167303085327</v>
+        <v>0.7495768666267395</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.49144047498703</v>
+        <v>0.3702545762062073</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5093929171562195</v>
+        <v>0.5541085004806519</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4992230534553528</v>
+        <v>0.5323666334152222</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5011369585990906</v>
+        <v>0.5690140128135681</v>
       </c>
     </row>
     <row r="21">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5027030110359192</v>
+        <v>0.4938535988330841</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4939492344856262</v>
+        <v>0.4827529788017273</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4929150938987732</v>
+        <v>0.4715619385242462</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5099077224731445</v>
+        <v>0.5267050266265869</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5260111093521118</v>
+        <v>0.5497201085090637</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5896560549736023</v>
+        <v>0.5774034857749939</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.494935154914856</v>
+        <v>0.4997602999210358</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5059139728546143</v>
+        <v>0.4899245500564575</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4960944652557373</v>
+        <v>0.5293914675712585</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4819349944591522</v>
+        <v>0.4967174530029297</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4992329776287079</v>
+        <v>0.5032103061676025</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4792150557041168</v>
+        <v>0.4749829173088074</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4489166140556335</v>
+        <v>0.4550463855266571</v>
       </c>
     </row>
     <row r="34">
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.488673061132431</v>
+        <v>0.5627449750900269</v>
       </c>
     </row>
     <row r="35">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.50529545545578</v>
+        <v>0.482975572347641</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4758220613002777</v>
+        <v>0.4746008813381195</v>
       </c>
     </row>
     <row r="37">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5319632291793823</v>
+        <v>0.2514096200466156</v>
       </c>
     </row>
     <row r="38">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5059967637062073</v>
+        <v>0.4619325995445251</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5240451097488403</v>
+        <v>0.6663196086883545</v>
       </c>
     </row>
     <row r="40">
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5012663602828979</v>
+        <v>0.4759460985660553</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4743223190307617</v>
+        <v>0.470602810382843</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5099294185638428</v>
+        <v>0.5046419501304626</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4498136341571808</v>
+        <v>0.4914324581623077</v>
       </c>
     </row>
     <row r="44">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5591900944709778</v>
+        <v>0.4040604829788208</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4973501265048981</v>
+        <v>0.4991129338741302</v>
       </c>
     </row>
     <row r="46">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4953099191188812</v>
+        <v>0.5260767340660095</v>
       </c>
     </row>
     <row r="47">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4614345133304596</v>
+        <v>0.5174676775932312</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5219454765319824</v>
+        <v>0.5244544148445129</v>
       </c>
     </row>
     <row r="49">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5441341400146484</v>
+        <v>0.3714616298675537</v>
       </c>
     </row>
   </sheetData>
